--- a/Result/VAR/Manufacturing/JPN.xlsx
+++ b/Result/VAR/Manufacturing/JPN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,213 +460,223 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1131601116694583</v>
+        <v>23.98030410786858</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09994047186505028</v>
+        <v>23.56255995421238</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.5031745547276891</v>
+        <v>23.12549774171843</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07906370568313648</v>
+        <v>22.69324139491783</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B6" t="n">
-        <v>0.485124876200441</v>
+        <v>22.25307221153614</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.382836602831286</v>
+        <v>21.89644669448948</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9274765154709854</v>
+        <v>21.52499277652478</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6074443710281727</v>
+        <v>21.15599090857465</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00103067780399968</v>
+        <v>20.84001722660343</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09932124096737027</v>
+        <v>20.8420513580753</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3268678669870404</v>
+        <v>20.97507412129914</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5003068965804687</v>
+        <v>20.90415978963375</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.077694857041589</v>
+        <v>21.02701795652256</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.624873049579609</v>
+        <v>21.39020486169563</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B16" t="n">
-        <v>3.944865099476349</v>
+        <v>20.05934924949733</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.949163982359039</v>
+        <v>20.96253299247605</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B18" t="n">
-        <v>1.361800715287828</v>
+        <v>20.25246513123966</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.4688308944870379</v>
+        <v>19.49103920938649</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6022543516879075</v>
+        <v>19.88881356008027</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6042835633845307</v>
+        <v>19.74535937402517</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.043292950009697</v>
+        <v>19.87884121989851</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B23" t="n">
+        <v>19.95872818965945</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -714,7 +724,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1255162399800882</v>
+        <v>19.60072106797074</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -724,7 +734,7 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7754893739836493</v>
+        <v>19.15464086645493</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -734,7 +744,7 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.197883402260702</v>
+        <v>18.92535626220639</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -744,7 +754,7 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>1.126720206377286</v>
+        <v>18.7619460158259</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -754,7 +764,7 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6351671088505193</v>
+        <v>18.62508240777986</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -770,7 +780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,283 +812,273 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B2" t="n">
-        <v>23.46921539563932</v>
+        <v>23.60359831301482</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B3" t="n">
-        <v>23.47176597231475</v>
+        <v>23.34717677364178</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B4" t="n">
-        <v>23.36115643732072</v>
+        <v>23.04580400479329</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B5" t="n">
-        <v>23.35048737419174</v>
+        <v>22.76398591110084</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B6" t="n">
-        <v>22.83664375633507</v>
+        <v>22.36357599041737</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B7" t="n">
-        <v>22.40186384416154</v>
+        <v>22.03886908665579</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B8" t="n">
-        <v>22.45220880818845</v>
+        <v>21.80712655575084</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B9" t="n">
-        <v>21.11971716938407</v>
+        <v>21.27252028004369</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B10" t="n">
-        <v>20.71470204605068</v>
+        <v>20.96139389822509</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B11" t="n">
-        <v>20.91713129374546</v>
+        <v>20.95260205134854</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B12" t="n">
-        <v>21.12059121924424</v>
+        <v>21.04287426514862</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B13" t="n">
-        <v>21.42337238571039</v>
+        <v>21.03817319395989</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3992856851895</v>
+        <v>21.06668981579421</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B15" t="n">
-        <v>21.87550588124908</v>
+        <v>21.2095482179747</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B16" t="n">
-        <v>21.27403122026707</v>
+        <v>20.51393243399232</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B17" t="n">
-        <v>19.04768350970545</v>
+        <v>20.15952077884339</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B18" t="n">
-        <v>20.76620089862018</v>
+        <v>20.29021369707276</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B19" t="n">
-        <v>19.53555430517587</v>
+        <v>19.69991137232896</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B20" t="n">
-        <v>19.66670842701939</v>
+        <v>19.90448812452366</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B21" t="n">
-        <v>19.32903165437587</v>
+        <v>19.7726284689958</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B22" t="n">
-        <v>19.59360923342026</v>
+        <v>19.82329899438644</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B23" t="n">
-        <v>20.46247037584918</v>
+        <v>19.92649517983924</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B24" t="n">
-        <v>20.2880385682684</v>
+        <v>19.71050122427598</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B25" t="n">
-        <v>20.43594606860216</v>
+        <v>19.95694092041195</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B26" t="n">
-        <v>20.61976962533107</v>
+        <v>20.00884064375798</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B27" t="n">
-        <v>20.05877621706484</v>
+        <v>19.80605197471866</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B28" t="n">
-        <v>19.74777174028171</v>
+        <v>20.3170655497136</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B29" t="n">
-        <v>19.13380404390768</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1126,7 +1126,7 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.676341495449489</v>
+        <v>19.09816268486769</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -1136,7 +1136,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>3.326277713381368</v>
+        <v>19.20846279063443</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.941577315287534</v>
+        <v>19.23260074467692</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1156,7 +1156,7 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06278468172721324</v>
+        <v>19.23610997346741</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1166,7 +1166,7 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>1.232818413908444</v>
+        <v>19.21901970489343</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
